--- a/main/ig/StructureDefinition-FrMPSubstanceActive.xlsx
+++ b/main/ig/StructureDefinition-FrMPSubstanceActive.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="128">
   <si>
     <t>Property</t>
   </si>
@@ -349,9 +349,6 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1208,7 +1205,7 @@
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>106</v>
@@ -1217,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>21</v>
@@ -1225,10 +1222,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1248,22 +1245,22 @@
         <v>21</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="O5" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="P5" t="s" s="2">
         <v>21</v>
@@ -1288,14 +1285,14 @@
         <v>21</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Z5" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="AA5" t="s" s="2">
         <v>21</v>
       </c>
@@ -1312,7 +1309,7 @@
         <v>21</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -1321,27 +1318,27 @@
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AK5" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL5" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AL5" t="s" s="2">
+      <c r="AM5" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1361,22 +1358,22 @@
         <v>21</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L6" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="O6" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>21</v>
@@ -1425,7 +1422,7 @@
         <v>21</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -1434,19 +1431,19 @@
         <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AK6" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AL6" t="s" s="2">
+      <c r="AM6" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AM6" t="s" s="2">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
